--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  4 CARNES   ZAVALETA  SEPTIEMBRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  4 CARNES   ZAVALETA  SEPTIEMBRE   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="13" activeTab="13"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="  REMISIONES    JULIO   2022   " sheetId="9" r:id="rId12"/>
     <sheet name="DEPOSITOS A ODELPA   Zavaleta  " sheetId="16" r:id="rId13"/>
     <sheet name="  REMISIONES   AGOSTO   2022   " sheetId="10" r:id="rId14"/>
-    <sheet name="Hoja1" sheetId="18" r:id="rId15"/>
+    <sheet name="REMISIONES  SEPTIEMBRE 2022" sheetId="18" r:id="rId15"/>
     <sheet name="Hoja2" sheetId="19" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="164">
   <si>
     <t>REMISION</t>
   </si>
@@ -703,6 +703,15 @@
   </si>
   <si>
     <t xml:space="preserve">REMISIONES  OBRADOR </t>
+  </si>
+  <si>
+    <t>REMISIONES    POR     CREDITOS         DE  AGOSTO        2 0 2 2</t>
+  </si>
+  <si>
+    <t>REMISIONES    POR     CREDITOS         DE   SEPTIEMBRE       2 0 2 2</t>
+  </si>
+  <si>
+    <t>FECHA</t>
   </si>
 </sst>
 </file>
@@ -1471,7 +1480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2097,6 +2106,18 @@
     <xf numFmtId="0" fontId="25" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2706,6 +2727,117 @@
       <xdr:spPr>
         <a:xfrm rot="5400000">
           <a:off x="5700714" y="12091992"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E055DA59-7FBF-4D29-B4AB-401C9645664F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4805365" y="6224590"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A450A5-FF34-4FFA-923D-F99626F430F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5700714" y="6272217"/>
           <a:ext cx="638173" cy="495298"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -11614,8 +11746,8 @@
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11633,7 +11765,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="279" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="C1" s="280"/>
       <c r="D1" s="280"/>
@@ -12407,13 +12539,897 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="111" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="53" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="203" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="18" style="56" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="279" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="280"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="281"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="307"/>
+      <c r="B2" s="271" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="310" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="81"/>
+      <c r="B4" s="13">
+        <v>477</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="309"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="18">
+        <f t="shared" ref="H4:H42" si="0">E4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="81"/>
+      <c r="B5" s="13">
+        <v>478</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="81"/>
+      <c r="B6" s="13">
+        <v>479</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="13">
+        <v>480</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="81"/>
+      <c r="B8" s="13">
+        <v>481</v>
+      </c>
+      <c r="C8" s="82"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="81"/>
+      <c r="B9" s="13">
+        <v>482</v>
+      </c>
+      <c r="C9" s="213"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="81"/>
+      <c r="B10" s="13">
+        <v>483</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="81"/>
+      <c r="B11" s="13">
+        <v>484</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="81"/>
+      <c r="B12" s="13">
+        <v>485</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="81"/>
+      <c r="B13" s="13">
+        <v>486</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="81"/>
+      <c r="B14" s="13">
+        <v>487</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="81"/>
+      <c r="B15" s="13">
+        <v>488</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="81"/>
+      <c r="B16" s="13">
+        <v>489</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
+      <c r="B17" s="13">
+        <v>490</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="81"/>
+      <c r="B18" s="13">
+        <v>491</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="81"/>
+      <c r="B19" s="13">
+        <v>492</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="81"/>
+      <c r="B20" s="13">
+        <v>493</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="81"/>
+      <c r="B21" s="13">
+        <v>494</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="270"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="81"/>
+      <c r="B22" s="13">
+        <v>495</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="81"/>
+      <c r="B23" s="13">
+        <v>496</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="81"/>
+      <c r="B24" s="13">
+        <v>497</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="13">
+        <v>498</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="13">
+        <v>499</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="13">
+        <v>500</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="13">
+        <v>501</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="13">
+        <v>502</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="13">
+        <v>503</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="13">
+        <v>504</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="13">
+        <v>505</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="13">
+        <v>506</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="13">
+        <v>507</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
+      <c r="B35" s="13">
+        <v>508</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="13">
+        <v>509</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="13">
+        <v>510</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="13">
+        <v>511</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="13">
+        <v>512</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="13">
+        <v>513</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="30"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="204"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="308"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="34">
+        <v>0</v>
+      </c>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="198"/>
+      <c r="E43" s="39">
+        <f>SUM(E4:E42)</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39">
+        <f>SUM(G4:G42)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="40">
+        <f>SUM(H4:H42)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="198"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="198"/>
+      <c r="E45" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="42"/>
+      <c r="G45" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="44"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="37"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="198"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="198"/>
+      <c r="E47" s="272">
+        <f>E43-G43</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="273"/>
+      <c r="G47" s="274"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="198"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="43"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="198"/>
+      <c r="E49" s="275" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="275"/>
+      <c r="G49" s="275"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="112"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="199"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="117"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="101"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="200"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="118"/>
+      <c r="B52" s="119"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="201"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="123"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="118"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="120"/>
+      <c r="D53" s="201"/>
+      <c r="E53" s="122"/>
+      <c r="F53" s="123"/>
+      <c r="G53" s="124"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="118"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="201"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="123"/>
+      <c r="G54" s="124"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="118"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="201"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="123"/>
+      <c r="G55" s="124"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="118"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="201"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="123"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="118"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="201"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="123"/>
+      <c r="G57" s="124"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="118"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="201"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="123"/>
+      <c r="G58" s="124"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="118"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="120"/>
+      <c r="D59" s="201"/>
+      <c r="E59" s="122"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="124"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="118"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="201"/>
+      <c r="E60" s="122"/>
+      <c r="F60" s="123"/>
+      <c r="G60" s="124"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="118"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="120"/>
+      <c r="D61" s="201"/>
+      <c r="E61" s="122"/>
+      <c r="F61" s="123"/>
+      <c r="G61" s="124"/>
+      <c r="H61" s="104"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="118"/>
+      <c r="B62" s="106"/>
+      <c r="C62" s="107"/>
+      <c r="D62" s="202"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="109"/>
+      <c r="G62" s="110"/>
+      <c r="H62" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E49:G49"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  4 CARNES   ZAVALETA  SEPTIEMBRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  4 CARNES   ZAVALETA  SEPTIEMBRE   2022.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="165">
   <si>
     <t>REMISION</t>
   </si>
@@ -712,6 +712,9 @@
   </si>
   <si>
     <t>FECHA</t>
+  </si>
+  <si>
+    <t>NORMA LEDO    Central</t>
   </si>
 </sst>
 </file>
@@ -1998,6 +2001,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2105,18 +2120,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4113,24 +4116,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="276" t="s">
+      <c r="B1" s="280" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="277"/>
-      <c r="D1" s="277"/>
-      <c r="E1" s="277"/>
-      <c r="F1" s="278"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="282"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -5276,12 +5279,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="272">
+      <c r="D55" s="276">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="273"/>
-      <c r="F55" s="274"/>
+      <c r="E55" s="277"/>
+      <c r="F55" s="278"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -5295,11 +5298,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="275" t="s">
+      <c r="D57" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="275"/>
-      <c r="F57" s="275"/>
+      <c r="E57" s="279"/>
+      <c r="F57" s="279"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -5428,25 +5431,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="279" t="s">
+      <c r="B1" s="283" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="281"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="285"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6543,12 +6546,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="198"/>
-      <c r="E50" s="272">
+      <c r="E50" s="276">
         <f>E46-G46</f>
         <v>0</v>
       </c>
-      <c r="F50" s="273"/>
-      <c r="G50" s="274"/>
+      <c r="F50" s="277"/>
+      <c r="G50" s="278"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -6564,11 +6567,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="198"/>
-      <c r="E52" s="275" t="s">
+      <c r="E52" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="275"/>
-      <c r="G52" s="275"/>
+      <c r="F52" s="279"/>
+      <c r="G52" s="279"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -6767,18 +6770,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q1" s="282"/>
-      <c r="R1" s="283"/>
-      <c r="S1" s="283"/>
-      <c r="T1" s="283"/>
-      <c r="U1" s="283"/>
-      <c r="V1" s="283"/>
-      <c r="W1" s="283"/>
-      <c r="X1" s="283"/>
-      <c r="Y1" s="283"/>
-      <c r="Z1" s="283"/>
-      <c r="AA1" s="283"/>
-      <c r="AB1" s="283"/>
+      <c r="Q1" s="286"/>
+      <c r="R1" s="287"/>
+      <c r="S1" s="287"/>
+      <c r="T1" s="287"/>
+      <c r="U1" s="287"/>
+      <c r="V1" s="287"/>
+      <c r="W1" s="287"/>
+      <c r="X1" s="287"/>
+      <c r="Y1" s="287"/>
+      <c r="Z1" s="287"/>
+      <c r="AA1" s="287"/>
+      <c r="AB1" s="287"/>
     </row>
     <row r="2" spans="2:35" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="155" t="s">
@@ -7432,10 +7435,10 @@
         <v>101</v>
       </c>
       <c r="R19" s="128"/>
-      <c r="S19" s="286" t="s">
+      <c r="S19" s="290" t="s">
         <v>95</v>
       </c>
-      <c r="T19" s="287"/>
+      <c r="T19" s="291"/>
       <c r="U19" s="77">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
@@ -7814,20 +7817,20 @@
       </c>
     </row>
     <row r="36" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="288" t="s">
+      <c r="B36" s="292" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="289"/>
-      <c r="D36" s="290"/>
+      <c r="C36" s="293"/>
+      <c r="D36" s="294"/>
       <c r="E36" s="183">
         <f t="shared" si="0"/>
         <v>0.31000000005587935</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="291"/>
-      <c r="C37" s="292"/>
-      <c r="D37" s="293"/>
+      <c r="B37" s="295"/>
+      <c r="C37" s="296"/>
+      <c r="D37" s="297"/>
     </row>
     <row r="38" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:28" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -7841,12 +7844,12 @@
     </row>
     <row r="41" spans="1:28" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="232"/>
-      <c r="B41" s="294" t="s">
+      <c r="B41" s="298" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="295"/>
-      <c r="D41" s="295"/>
-      <c r="E41" s="296"/>
+      <c r="C41" s="299"/>
+      <c r="D41" s="299"/>
+      <c r="E41" s="300"/>
       <c r="F41" s="233"/>
       <c r="AA41" s="173"/>
     </row>
@@ -8371,8 +8374,8 @@
       <c r="D65" s="247"/>
       <c r="E65" s="248"/>
       <c r="F65" s="249"/>
-      <c r="AA65" s="284"/>
-      <c r="AB65" s="285"/>
+      <c r="AA65" s="288"/>
+      <c r="AB65" s="289"/>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="AA70" s="54"/>
@@ -8416,25 +8419,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="279" t="s">
+      <c r="B1" s="283" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="281"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="285"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9617,12 +9620,12 @@
       <c r="B55" s="37"/>
       <c r="C55" s="38"/>
       <c r="D55" s="198"/>
-      <c r="E55" s="272">
+      <c r="E55" s="276">
         <f>E51-G51</f>
         <v>40994</v>
       </c>
-      <c r="F55" s="273"/>
-      <c r="G55" s="274"/>
+      <c r="F55" s="277"/>
+      <c r="G55" s="278"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -9638,11 +9641,11 @@
       <c r="B57" s="37"/>
       <c r="C57" s="38"/>
       <c r="D57" s="198"/>
-      <c r="E57" s="275" t="s">
+      <c r="E57" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="275"/>
-      <c r="G57" s="275"/>
+      <c r="F57" s="279"/>
+      <c r="G57" s="279"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -9861,22 +9864,22 @@
       <c r="AG1" s="217"/>
     </row>
     <row r="2" spans="2:40" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="300" t="s">
+      <c r="B2" s="304" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="300"/>
-      <c r="D2" s="300"/>
-      <c r="E2" s="300"/>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="300"/>
-      <c r="I2" s="300"/>
-      <c r="J2" s="300"/>
-      <c r="S2" s="297" t="s">
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="304"/>
+      <c r="H2" s="304"/>
+      <c r="I2" s="304"/>
+      <c r="J2" s="304"/>
+      <c r="S2" s="301" t="s">
         <v>160</v>
       </c>
-      <c r="T2" s="298"/>
-      <c r="U2" s="299"/>
+      <c r="T2" s="302"/>
+      <c r="U2" s="303"/>
       <c r="V2" s="266"/>
       <c r="W2" s="170" t="s">
         <v>91</v>
@@ -10908,10 +10911,10 @@
       </c>
       <c r="V19" s="266"/>
       <c r="W19" s="264"/>
-      <c r="X19" s="286" t="s">
+      <c r="X19" s="290" t="s">
         <v>95</v>
       </c>
-      <c r="Y19" s="287"/>
+      <c r="Y19" s="291"/>
       <c r="Z19" s="77">
         <f t="shared" si="2"/>
         <v>11454.260000000009</v>
@@ -10942,11 +10945,11 @@
         <f t="shared" si="3"/>
         <v>903828</v>
       </c>
-      <c r="G20" s="301" t="s">
+      <c r="G20" s="305" t="s">
         <v>159</v>
       </c>
-      <c r="H20" s="302"/>
-      <c r="I20" s="303"/>
+      <c r="H20" s="306"/>
+      <c r="I20" s="307"/>
       <c r="J20" s="183">
         <f t="shared" si="0"/>
         <v>-0.83000000007450581</v>
@@ -10997,9 +11000,9 @@
         <f t="shared" si="3"/>
         <v>937147</v>
       </c>
-      <c r="G21" s="304"/>
-      <c r="H21" s="305"/>
-      <c r="I21" s="306"/>
+      <c r="G21" s="308"/>
+      <c r="H21" s="309"/>
+      <c r="I21" s="310"/>
       <c r="J21" s="114"/>
       <c r="S21" s="252">
         <v>44755</v>
@@ -11719,8 +11722,8 @@
       <c r="AG72" s="121"/>
     </row>
     <row r="73" spans="22:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AF73" s="284"/>
-      <c r="AG73" s="285"/>
+      <c r="AF73" s="288"/>
+      <c r="AG73" s="289"/>
     </row>
     <row r="78" spans="22:33" x14ac:dyDescent="0.3">
       <c r="AF78" s="54"/>
@@ -11747,7 +11750,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11764,25 +11767,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="279" t="s">
+      <c r="B1" s="283" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="281"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="285"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12024,11 +12027,15 @@
       <c r="E13" s="20">
         <v>39575</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
+      <c r="F13" s="85">
+        <v>44804</v>
+      </c>
+      <c r="G13" s="86">
+        <v>39575</v>
+      </c>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>39575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -12179,11 +12186,15 @@
       <c r="E20" s="20">
         <v>1364</v>
       </c>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
+      <c r="F20" s="85">
+        <v>44804</v>
+      </c>
+      <c r="G20" s="86">
+        <v>1364</v>
+      </c>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>1364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -12310,11 +12321,11 @@
       <c r="F27" s="39"/>
       <c r="G27" s="39">
         <f>SUM(G4:G26)</f>
-        <v>5330</v>
+        <v>46269</v>
       </c>
       <c r="H27" s="40">
         <f>SUM(H4:H26)</f>
-        <v>332079</v>
+        <v>291140</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -12356,12 +12367,12 @@
       <c r="B31" s="37"/>
       <c r="C31" s="38"/>
       <c r="D31" s="198"/>
-      <c r="E31" s="272">
+      <c r="E31" s="276">
         <f>E27-G27</f>
-        <v>332079</v>
-      </c>
-      <c r="F31" s="273"/>
-      <c r="G31" s="274"/>
+        <v>291140</v>
+      </c>
+      <c r="F31" s="277"/>
+      <c r="G31" s="278"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -12377,11 +12388,11 @@
       <c r="B33" s="37"/>
       <c r="C33" s="38"/>
       <c r="D33" s="198"/>
-      <c r="E33" s="275" t="s">
+      <c r="E33" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="275"/>
-      <c r="G33" s="275"/>
+      <c r="F33" s="279"/>
+      <c r="G33" s="279"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -12545,7 +12556,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12562,31 +12573,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="279" t="s">
+      <c r="B1" s="283" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="281"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="285"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="307"/>
-      <c r="B2" s="271" t="s">
+      <c r="A2" s="271"/>
+      <c r="B2" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="310" t="s">
+      <c r="A3" s="274" t="s">
         <v>163</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -12613,49 +12624,67 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
+      <c r="A4" s="81">
+        <v>44802</v>
+      </c>
       <c r="B4" s="13">
         <v>477</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="309"/>
+      <c r="D4" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="15">
+        <v>34856</v>
+      </c>
+      <c r="F4" s="273"/>
       <c r="G4" s="173"/>
       <c r="H4" s="18">
         <f t="shared" ref="H4:H42" si="0">E4-G4</f>
-        <v>0</v>
+        <v>34856</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="81">
+        <v>44804</v>
+      </c>
       <c r="B5" s="13">
         <v>478</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1919</v>
+      </c>
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
       <c r="H5" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
+      <c r="A6" s="81">
+        <v>44806</v>
+      </c>
       <c r="B6" s="13">
         <v>479</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="20">
+        <v>5600</v>
+      </c>
       <c r="F6" s="87"/>
       <c r="G6" s="84"/>
       <c r="H6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13182,7 +13211,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="308"/>
+      <c r="A42" s="272"/>
       <c r="B42" s="100"/>
       <c r="C42" s="32"/>
       <c r="D42" s="197"/>
@@ -13203,7 +13232,7 @@
       <c r="D43" s="198"/>
       <c r="E43" s="39">
         <f>SUM(E4:E42)</f>
-        <v>0</v>
+        <v>42375</v>
       </c>
       <c r="F43" s="39"/>
       <c r="G43" s="39">
@@ -13212,7 +13241,7 @@
       </c>
       <c r="H43" s="40">
         <f>SUM(H4:H42)</f>
-        <v>0</v>
+        <v>42375</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -13254,12 +13283,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="198"/>
-      <c r="E47" s="272">
+      <c r="E47" s="276">
         <f>E43-G43</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="273"/>
-      <c r="G47" s="274"/>
+        <v>42375</v>
+      </c>
+      <c r="F47" s="277"/>
+      <c r="G47" s="278"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -13275,11 +13304,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="198"/>
-      <c r="E49" s="275" t="s">
+      <c r="E49" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="275"/>
-      <c r="G49" s="275"/>
+      <c r="F49" s="279"/>
+      <c r="G49" s="279"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -13470,25 +13499,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="276" t="s">
+      <c r="B1" s="280" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="277"/>
-      <c r="D1" s="277"/>
-      <c r="E1" s="277"/>
-      <c r="F1" s="277"/>
-      <c r="G1" s="278"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="282"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15218,12 +15247,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="272">
+      <c r="E76" s="276">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="273"/>
-      <c r="G76" s="274"/>
+      <c r="F76" s="277"/>
+      <c r="G76" s="278"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -15239,11 +15268,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="275" t="s">
+      <c r="E78" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="275"/>
-      <c r="G78" s="275"/>
+      <c r="F78" s="279"/>
+      <c r="G78" s="279"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -15384,25 +15413,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="276" t="s">
+      <c r="B1" s="280" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="277"/>
-      <c r="D1" s="277"/>
-      <c r="E1" s="277"/>
-      <c r="F1" s="277"/>
-      <c r="G1" s="278"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="282"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -16251,12 +16280,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="272">
+      <c r="E41" s="276">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="273"/>
-      <c r="G41" s="274"/>
+      <c r="F41" s="277"/>
+      <c r="G41" s="278"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -16272,11 +16301,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="275" t="s">
+      <c r="E43" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="275"/>
-      <c r="G43" s="275"/>
+      <c r="F43" s="279"/>
+      <c r="G43" s="279"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -16420,25 +16449,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="279" t="s">
+      <c r="B1" s="283" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="281"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="285"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -17778,12 +17807,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="272">
+      <c r="E60" s="276">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="273"/>
-      <c r="G60" s="274"/>
+      <c r="F60" s="277"/>
+      <c r="G60" s="278"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -17799,11 +17828,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="275" t="s">
+      <c r="E62" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="275"/>
-      <c r="G62" s="275"/>
+      <c r="F62" s="279"/>
+      <c r="G62" s="279"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -17944,25 +17973,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="279" t="s">
+      <c r="B1" s="283" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="281"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="285"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -19363,12 +19392,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="272">
+      <c r="E61" s="276">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="273"/>
-      <c r="G61" s="274"/>
+      <c r="F61" s="277"/>
+      <c r="G61" s="278"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -19384,11 +19413,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="275" t="s">
+      <c r="E63" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="275"/>
-      <c r="G63" s="275"/>
+      <c r="F63" s="279"/>
+      <c r="G63" s="279"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -19529,25 +19558,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="279" t="s">
+      <c r="B1" s="283" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="281"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="285"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -20997,12 +21026,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="272">
+      <c r="E64" s="276">
         <f>E60-G60</f>
         <v>0</v>
       </c>
-      <c r="F64" s="273"/>
-      <c r="G64" s="274"/>
+      <c r="F64" s="277"/>
+      <c r="G64" s="278"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -21018,11 +21047,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="275" t="s">
+      <c r="E66" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="275"/>
-      <c r="G66" s="275"/>
+      <c r="F66" s="279"/>
+      <c r="G66" s="279"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -21163,25 +21192,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="279" t="s">
+      <c r="B1" s="283" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="281"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="285"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -22646,12 +22675,12 @@
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="198"/>
-      <c r="E65" s="272">
+      <c r="E65" s="276">
         <f>E61-G61</f>
         <v>0</v>
       </c>
-      <c r="F65" s="273"/>
-      <c r="G65" s="274"/>
+      <c r="F65" s="277"/>
+      <c r="G65" s="278"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -22667,11 +22696,11 @@
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="198"/>
-      <c r="E67" s="275" t="s">
+      <c r="E67" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="275"/>
-      <c r="G67" s="275"/>
+      <c r="F67" s="279"/>
+      <c r="G67" s="279"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -22853,25 +22882,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="279" t="s">
+      <c r="B1" s="283" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="281"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="285"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -23822,12 +23851,12 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="272">
+      <c r="E43" s="276">
         <f>E39-G39</f>
         <v>0</v>
       </c>
-      <c r="F43" s="273"/>
-      <c r="G43" s="274"/>
+      <c r="F43" s="277"/>
+      <c r="G43" s="278"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -23843,11 +23872,11 @@
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="275" t="s">
+      <c r="E45" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="275"/>
-      <c r="G45" s="275"/>
+      <c r="F45" s="279"/>
+      <c r="G45" s="279"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  4 CARNES   ZAVALETA  SEPTIEMBRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  4 CARNES   ZAVALETA  SEPTIEMBRE   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="14" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="165">
   <si>
     <t>REMISION</t>
   </si>
@@ -11750,7 +11750,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12144,11 +12144,15 @@
       <c r="E18" s="20">
         <v>29415</v>
       </c>
-      <c r="F18" s="85"/>
-      <c r="G18" s="86"/>
+      <c r="F18" s="85">
+        <v>44811</v>
+      </c>
+      <c r="G18" s="86">
+        <v>29415</v>
+      </c>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>29415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -12321,11 +12325,11 @@
       <c r="F27" s="39"/>
       <c r="G27" s="39">
         <f>SUM(G4:G26)</f>
-        <v>46269</v>
+        <v>75684</v>
       </c>
       <c r="H27" s="40">
         <f>SUM(H4:H26)</f>
-        <v>291140</v>
+        <v>261725</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -12369,7 +12373,7 @@
       <c r="D31" s="198"/>
       <c r="E31" s="276">
         <f>E27-G27</f>
-        <v>291140</v>
+        <v>261725</v>
       </c>
       <c r="F31" s="277"/>
       <c r="G31" s="278"/>
@@ -12556,7 +12560,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12659,11 +12663,15 @@
       <c r="E5" s="20">
         <v>1919</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="21">
+        <v>44811</v>
+      </c>
+      <c r="G5" s="22">
+        <v>1919</v>
+      </c>
       <c r="H5" s="18">
         <f t="shared" si="0"/>
-        <v>1919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12688,28 +12696,40 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="30">
+        <v>44807</v>
+      </c>
       <c r="B7" s="13">
         <v>480</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="20">
+        <v>18108</v>
+      </c>
       <c r="F7" s="87"/>
       <c r="G7" s="84"/>
       <c r="H7" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18108</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
+      <c r="A8" s="81">
+        <v>44809</v>
+      </c>
       <c r="B8" s="13">
         <v>481</v>
       </c>
       <c r="C8" s="82"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="196" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="270">
+        <v>0</v>
+      </c>
       <c r="F8" s="87"/>
       <c r="G8" s="84"/>
       <c r="H8" s="75">
@@ -12718,48 +12738,66 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
+      <c r="A9" s="81">
+        <v>44809</v>
+      </c>
       <c r="B9" s="13">
         <v>482</v>
       </c>
       <c r="C9" s="213"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="20">
+        <v>34583</v>
+      </c>
       <c r="F9" s="87"/>
       <c r="G9" s="84"/>
       <c r="H9" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34583</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
+      <c r="A10" s="81">
+        <v>44811</v>
+      </c>
       <c r="B10" s="13">
         <v>483</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1182</v>
+      </c>
       <c r="F10" s="87"/>
       <c r="G10" s="84"/>
       <c r="H10" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
+      <c r="A11" s="81">
+        <v>44811</v>
+      </c>
       <c r="B11" s="13">
         <v>484</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="20"/>
+      <c r="D11" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="20">
+        <v>42269</v>
+      </c>
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
       <c r="H11" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42269</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -13232,16 +13270,16 @@
       <c r="D43" s="198"/>
       <c r="E43" s="39">
         <f>SUM(E4:E42)</f>
-        <v>42375</v>
+        <v>138517</v>
       </c>
       <c r="F43" s="39"/>
       <c r="G43" s="39">
         <f>SUM(G4:G42)</f>
-        <v>0</v>
+        <v>1919</v>
       </c>
       <c r="H43" s="40">
         <f>SUM(H4:H42)</f>
-        <v>42375</v>
+        <v>136598</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -13285,7 +13323,7 @@
       <c r="D47" s="198"/>
       <c r="E47" s="276">
         <f>E43-G43</f>
-        <v>42375</v>
+        <v>136598</v>
       </c>
       <c r="F47" s="277"/>
       <c r="G47" s="278"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  4 CARNES   ZAVALETA  SEPTIEMBRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  4 CARNES   ZAVALETA  SEPTIEMBRE   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="14" activeTab="14"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="165">
   <si>
     <t>REMISION</t>
   </si>
@@ -11750,7 +11750,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12278,11 +12278,15 @@
       <c r="E24" s="20">
         <v>51478</v>
       </c>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
+      <c r="F24" s="85">
+        <v>44817</v>
+      </c>
+      <c r="G24" s="86">
+        <v>51478</v>
+      </c>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
-        <v>51478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12325,11 +12329,11 @@
       <c r="F27" s="39"/>
       <c r="G27" s="39">
         <f>SUM(G4:G26)</f>
-        <v>75684</v>
+        <v>127162</v>
       </c>
       <c r="H27" s="40">
         <f>SUM(H4:H26)</f>
-        <v>261725</v>
+        <v>210247</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -12373,7 +12377,7 @@
       <c r="D31" s="198"/>
       <c r="E31" s="276">
         <f>E27-G27</f>
-        <v>261725</v>
+        <v>210247</v>
       </c>
       <c r="F31" s="277"/>
       <c r="G31" s="278"/>
@@ -12560,7 +12564,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12772,11 +12776,15 @@
       <c r="E10" s="20">
         <v>1182</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="84"/>
+      <c r="F10" s="87">
+        <v>44818</v>
+      </c>
+      <c r="G10" s="84">
+        <v>1182</v>
+      </c>
       <c r="H10" s="18">
         <f t="shared" si="0"/>
-        <v>1182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -12801,93 +12809,129 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
+      <c r="A12" s="81">
+        <v>44814</v>
+      </c>
       <c r="B12" s="13">
         <v>485</v>
       </c>
       <c r="C12" s="24"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="20">
+        <v>22427</v>
+      </c>
       <c r="F12" s="87"/>
       <c r="G12" s="84"/>
       <c r="H12" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22427</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
+      <c r="A13" s="81">
+        <v>44814</v>
+      </c>
       <c r="B13" s="13">
         <v>486</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="20">
+        <v>1578</v>
+      </c>
       <c r="F13" s="87"/>
       <c r="G13" s="84"/>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
+      <c r="A14" s="81">
+        <v>44816</v>
+      </c>
       <c r="B14" s="13">
         <v>487</v>
       </c>
       <c r="C14" s="24"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="20">
+        <v>946</v>
+      </c>
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>946</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
+      <c r="A15" s="81">
+        <v>44816</v>
+      </c>
       <c r="B15" s="13">
         <v>488</v>
       </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="20">
+        <v>29387</v>
+      </c>
       <c r="F15" s="87"/>
       <c r="G15" s="84"/>
       <c r="H15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29387</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
+      <c r="A16" s="81">
+        <v>44818</v>
+      </c>
       <c r="B16" s="13">
         <v>489</v>
       </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="20"/>
+      <c r="D16" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="20">
+        <v>4979</v>
+      </c>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
+      <c r="A17" s="81">
+        <v>44818</v>
+      </c>
       <c r="B17" s="13">
         <v>490</v>
       </c>
       <c r="C17" s="25"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="20">
+        <v>2105</v>
+      </c>
       <c r="F17" s="87"/>
       <c r="G17" s="84"/>
       <c r="H17" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -13270,16 +13314,16 @@
       <c r="D43" s="198"/>
       <c r="E43" s="39">
         <f>SUM(E4:E42)</f>
-        <v>138517</v>
+        <v>199939</v>
       </c>
       <c r="F43" s="39"/>
       <c r="G43" s="39">
         <f>SUM(G4:G42)</f>
-        <v>1919</v>
+        <v>3101</v>
       </c>
       <c r="H43" s="40">
         <f>SUM(H4:H42)</f>
-        <v>136598</v>
+        <v>196838</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -13323,7 +13367,7 @@
       <c r="D47" s="198"/>
       <c r="E47" s="276">
         <f>E43-G43</f>
-        <v>136598</v>
+        <v>196838</v>
       </c>
       <c r="F47" s="277"/>
       <c r="G47" s="278"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  4 CARNES   ZAVALETA  SEPTIEMBRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  4 CARNES   ZAVALETA  SEPTIEMBRE   2022.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="166">
   <si>
     <t>REMISION</t>
   </si>
@@ -715,6 +715,9 @@
   </si>
   <si>
     <t>NORMA LEDO    Central</t>
+  </si>
+  <si>
+    <t>OCTAVIO ZAMORA LOPEZ</t>
   </si>
 </sst>
 </file>
@@ -12563,8 +12566,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12935,63 +12938,87 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
+      <c r="A18" s="81">
+        <v>44819</v>
+      </c>
       <c r="B18" s="13">
         <v>491</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="20">
+        <v>20643</v>
+      </c>
       <c r="F18" s="87"/>
       <c r="G18" s="84"/>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20643</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
+      <c r="A19" s="81">
+        <v>44819</v>
+      </c>
       <c r="B19" s="13">
         <v>492</v>
       </c>
       <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="20">
+        <v>3200</v>
+      </c>
       <c r="F19" s="87"/>
       <c r="G19" s="84"/>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
+      <c r="A20" s="81">
+        <v>44820</v>
+      </c>
       <c r="B20" s="13">
         <v>493</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="20">
+        <v>5880</v>
+      </c>
       <c r="F20" s="87"/>
       <c r="G20" s="84"/>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
+      <c r="A21" s="81">
+        <v>44821</v>
+      </c>
       <c r="B21" s="13">
         <v>494</v>
       </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="270"/>
+      <c r="D21" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="20">
+        <v>45525</v>
+      </c>
       <c r="F21" s="87"/>
       <c r="G21" s="84"/>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45525</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -13314,7 +13341,7 @@
       <c r="D43" s="198"/>
       <c r="E43" s="39">
         <f>SUM(E4:E42)</f>
-        <v>199939</v>
+        <v>275187</v>
       </c>
       <c r="F43" s="39"/>
       <c r="G43" s="39">
@@ -13323,7 +13350,7 @@
       </c>
       <c r="H43" s="40">
         <f>SUM(H4:H42)</f>
-        <v>196838</v>
+        <v>272086</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -13367,7 +13394,7 @@
       <c r="D47" s="198"/>
       <c r="E47" s="276">
         <f>E43-G43</f>
-        <v>196838</v>
+        <v>272086</v>
       </c>
       <c r="F47" s="277"/>
       <c r="G47" s="278"/>
@@ -13540,7 +13567,8 @@
     <mergeCell ref="E49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  4 CARNES   ZAVALETA  SEPTIEMBRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  4 CARNES   ZAVALETA  SEPTIEMBRE   2022.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="166">
   <si>
     <t>REMISION</t>
   </si>
@@ -12566,8 +12566,8 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12888,11 +12888,15 @@
       <c r="E15" s="20">
         <v>29387</v>
       </c>
-      <c r="F15" s="87"/>
-      <c r="G15" s="84"/>
+      <c r="F15" s="87">
+        <v>44825</v>
+      </c>
+      <c r="G15" s="84">
+        <v>29387</v>
+      </c>
       <c r="H15" s="18">
         <f t="shared" si="0"/>
-        <v>29387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -12930,11 +12934,15 @@
       <c r="E17" s="20">
         <v>2105</v>
       </c>
-      <c r="F17" s="87"/>
-      <c r="G17" s="84"/>
+      <c r="F17" s="87">
+        <v>44825</v>
+      </c>
+      <c r="G17" s="84">
+        <v>2105</v>
+      </c>
       <c r="H17" s="18">
         <f t="shared" si="0"/>
-        <v>2105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -13022,73 +13030,103 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
+      <c r="A22" s="81">
+        <v>44825</v>
+      </c>
       <c r="B22" s="13">
         <v>495</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="20">
+        <v>619</v>
+      </c>
       <c r="F22" s="87"/>
       <c r="G22" s="84"/>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>619</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
+      <c r="A23" s="81">
+        <v>44826</v>
+      </c>
       <c r="B23" s="13">
         <v>496</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="20">
+        <v>4400</v>
+      </c>
       <c r="F23" s="87"/>
       <c r="G23" s="84"/>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="81"/>
+      <c r="A24" s="81">
+        <v>44826</v>
+      </c>
       <c r="B24" s="13">
         <v>497</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="20"/>
+      <c r="D24" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="20">
+        <v>4400</v>
+      </c>
       <c r="F24" s="87"/>
       <c r="G24" s="84"/>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
+      <c r="A25" s="30">
+        <v>44827</v>
+      </c>
       <c r="B25" s="13">
         <v>498</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="20">
+        <v>49849</v>
+      </c>
       <c r="F25" s="87"/>
       <c r="G25" s="84"/>
       <c r="H25" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
+        <v>49849</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="30">
+        <v>44827</v>
+      </c>
       <c r="B26" s="13">
         <v>499</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="20"/>
+      <c r="D26" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="20">
+        <v>0</v>
+      </c>
       <c r="F26" s="87"/>
       <c r="G26" s="84"/>
       <c r="H26" s="18">
@@ -13097,18 +13135,24 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
+      <c r="A27" s="30">
+        <v>44827</v>
+      </c>
       <c r="B27" s="13">
         <v>500</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="20">
+        <v>28602</v>
+      </c>
       <c r="F27" s="87"/>
       <c r="G27" s="84"/>
       <c r="H27" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28602</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -13341,16 +13385,16 @@
       <c r="D43" s="198"/>
       <c r="E43" s="39">
         <f>SUM(E4:E42)</f>
-        <v>275187</v>
+        <v>363057</v>
       </c>
       <c r="F43" s="39"/>
       <c r="G43" s="39">
         <f>SUM(G4:G42)</f>
-        <v>3101</v>
+        <v>34593</v>
       </c>
       <c r="H43" s="40">
         <f>SUM(H4:H42)</f>
-        <v>272086</v>
+        <v>328464</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -13394,7 +13438,7 @@
       <c r="D47" s="198"/>
       <c r="E47" s="276">
         <f>E43-G43</f>
-        <v>272086</v>
+        <v>328464</v>
       </c>
       <c r="F47" s="277"/>
       <c r="G47" s="278"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  4 CARNES   ZAVALETA  SEPTIEMBRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  4 CARNES   ZAVALETA  SEPTIEMBRE   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="15" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <sheet name="DEPOSITOS A ODELPA   Zavaleta  " sheetId="16" r:id="rId13"/>
     <sheet name="  REMISIONES   AGOSTO   2022   " sheetId="10" r:id="rId14"/>
     <sheet name="REMISIONES  SEPTIEMBRE 2022" sheetId="18" r:id="rId15"/>
-    <sheet name="Hoja2" sheetId="19" r:id="rId16"/>
+    <sheet name="DEPOSITOS ZAVALETA &amp; Obrador " sheetId="19" r:id="rId16"/>
+    <sheet name="Hoja1" sheetId="20" r:id="rId17"/>
+    <sheet name="Hoja2" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="166">
   <si>
     <t>REMISION</t>
   </si>
@@ -731,7 +733,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -983,6 +985,21 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF990033"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1486,7 +1503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="324">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2016,6 +2033,17 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="28" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2124,6 +2152,24 @@
     <xf numFmtId="0" fontId="25" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2133,11 +2179,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF990033"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FF66FFFF"/>
-      <color rgb="FF990033"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFCC0099"/>
       <color rgb="FFCC99FF"/>
@@ -2868,6 +2914,49 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>656198</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>103983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9134475" y="304800"/>
+          <a:ext cx="8219048" cy="6333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4119,24 +4208,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="280" t="s">
+      <c r="B1" s="287" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="282"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="289"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -5282,12 +5371,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="276">
+      <c r="D55" s="283">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="277"/>
-      <c r="F55" s="278"/>
+      <c r="E55" s="284"/>
+      <c r="F55" s="285"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -5301,11 +5390,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="279" t="s">
+      <c r="D57" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="279"/>
-      <c r="F57" s="279"/>
+      <c r="E57" s="286"/>
+      <c r="F57" s="286"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -5434,25 +5523,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="283" t="s">
+      <c r="B1" s="290" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="284"/>
-      <c r="G1" s="285"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="292"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6549,12 +6638,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="198"/>
-      <c r="E50" s="276">
+      <c r="E50" s="283">
         <f>E46-G46</f>
         <v>0</v>
       </c>
-      <c r="F50" s="277"/>
-      <c r="G50" s="278"/>
+      <c r="F50" s="284"/>
+      <c r="G50" s="285"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -6570,11 +6659,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="198"/>
-      <c r="E52" s="279" t="s">
+      <c r="E52" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="279"/>
-      <c r="G52" s="279"/>
+      <c r="F52" s="286"/>
+      <c r="G52" s="286"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -6740,7 +6829,7 @@
   </sheetPr>
   <dimension ref="A1:AI70"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
@@ -6773,18 +6862,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q1" s="286"/>
-      <c r="R1" s="287"/>
-      <c r="S1" s="287"/>
-      <c r="T1" s="287"/>
-      <c r="U1" s="287"/>
-      <c r="V1" s="287"/>
-      <c r="W1" s="287"/>
-      <c r="X1" s="287"/>
-      <c r="Y1" s="287"/>
-      <c r="Z1" s="287"/>
-      <c r="AA1" s="287"/>
-      <c r="AB1" s="287"/>
+      <c r="Q1" s="293"/>
+      <c r="R1" s="294"/>
+      <c r="S1" s="294"/>
+      <c r="T1" s="294"/>
+      <c r="U1" s="294"/>
+      <c r="V1" s="294"/>
+      <c r="W1" s="294"/>
+      <c r="X1" s="294"/>
+      <c r="Y1" s="294"/>
+      <c r="Z1" s="294"/>
+      <c r="AA1" s="294"/>
+      <c r="AB1" s="294"/>
     </row>
     <row r="2" spans="2:35" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="155" t="s">
@@ -7438,10 +7527,10 @@
         <v>101</v>
       </c>
       <c r="R19" s="128"/>
-      <c r="S19" s="290" t="s">
+      <c r="S19" s="297" t="s">
         <v>95</v>
       </c>
-      <c r="T19" s="291"/>
+      <c r="T19" s="298"/>
       <c r="U19" s="77">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
@@ -7820,20 +7909,20 @@
       </c>
     </row>
     <row r="36" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="292" t="s">
+      <c r="B36" s="299" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="293"/>
-      <c r="D36" s="294"/>
+      <c r="C36" s="300"/>
+      <c r="D36" s="301"/>
       <c r="E36" s="183">
         <f t="shared" si="0"/>
         <v>0.31000000005587935</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="295"/>
-      <c r="C37" s="296"/>
-      <c r="D37" s="297"/>
+      <c r="B37" s="302"/>
+      <c r="C37" s="303"/>
+      <c r="D37" s="304"/>
     </row>
     <row r="38" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:28" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -7847,12 +7936,12 @@
     </row>
     <row r="41" spans="1:28" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="232"/>
-      <c r="B41" s="298" t="s">
+      <c r="B41" s="305" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="299"/>
-      <c r="D41" s="299"/>
-      <c r="E41" s="300"/>
+      <c r="C41" s="306"/>
+      <c r="D41" s="306"/>
+      <c r="E41" s="307"/>
       <c r="F41" s="233"/>
       <c r="AA41" s="173"/>
     </row>
@@ -8377,8 +8466,8 @@
       <c r="D65" s="247"/>
       <c r="E65" s="248"/>
       <c r="F65" s="249"/>
-      <c r="AA65" s="288"/>
-      <c r="AB65" s="289"/>
+      <c r="AA65" s="295"/>
+      <c r="AB65" s="296"/>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="AA70" s="54"/>
@@ -8422,25 +8511,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="283" t="s">
+      <c r="B1" s="290" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="284"/>
-      <c r="G1" s="285"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="292"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9623,12 +9712,12 @@
       <c r="B55" s="37"/>
       <c r="C55" s="38"/>
       <c r="D55" s="198"/>
-      <c r="E55" s="276">
+      <c r="E55" s="283">
         <f>E51-G51</f>
         <v>40994</v>
       </c>
-      <c r="F55" s="277"/>
-      <c r="G55" s="278"/>
+      <c r="F55" s="284"/>
+      <c r="G55" s="285"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -9644,11 +9733,11 @@
       <c r="B57" s="37"/>
       <c r="C57" s="38"/>
       <c r="D57" s="198"/>
-      <c r="E57" s="279" t="s">
+      <c r="E57" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="279"/>
-      <c r="G57" s="279"/>
+      <c r="F57" s="286"/>
+      <c r="G57" s="286"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -9814,8 +9903,8 @@
   </sheetPr>
   <dimension ref="B1:AN78"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="R13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -9867,22 +9956,22 @@
       <c r="AG1" s="217"/>
     </row>
     <row r="2" spans="2:40" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="304" t="s">
+      <c r="B2" s="311" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
-      <c r="F2" s="304"/>
-      <c r="G2" s="304"/>
-      <c r="H2" s="304"/>
-      <c r="I2" s="304"/>
-      <c r="J2" s="304"/>
-      <c r="S2" s="301" t="s">
+      <c r="C2" s="311"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
+      <c r="F2" s="311"/>
+      <c r="G2" s="311"/>
+      <c r="H2" s="311"/>
+      <c r="I2" s="311"/>
+      <c r="J2" s="311"/>
+      <c r="S2" s="308" t="s">
         <v>160</v>
       </c>
-      <c r="T2" s="302"/>
-      <c r="U2" s="303"/>
+      <c r="T2" s="309"/>
+      <c r="U2" s="310"/>
       <c r="V2" s="266"/>
       <c r="W2" s="170" t="s">
         <v>91</v>
@@ -10914,10 +11003,10 @@
       </c>
       <c r="V19" s="266"/>
       <c r="W19" s="264"/>
-      <c r="X19" s="290" t="s">
+      <c r="X19" s="297" t="s">
         <v>95</v>
       </c>
-      <c r="Y19" s="291"/>
+      <c r="Y19" s="298"/>
       <c r="Z19" s="77">
         <f t="shared" si="2"/>
         <v>11454.260000000009</v>
@@ -10948,11 +11037,11 @@
         <f t="shared" si="3"/>
         <v>903828</v>
       </c>
-      <c r="G20" s="305" t="s">
+      <c r="G20" s="312" t="s">
         <v>159</v>
       </c>
-      <c r="H20" s="306"/>
-      <c r="I20" s="307"/>
+      <c r="H20" s="313"/>
+      <c r="I20" s="314"/>
       <c r="J20" s="183">
         <f t="shared" si="0"/>
         <v>-0.83000000007450581</v>
@@ -11003,9 +11092,9 @@
         <f t="shared" si="3"/>
         <v>937147</v>
       </c>
-      <c r="G21" s="308"/>
-      <c r="H21" s="309"/>
-      <c r="I21" s="310"/>
+      <c r="G21" s="315"/>
+      <c r="H21" s="316"/>
+      <c r="I21" s="317"/>
       <c r="J21" s="114"/>
       <c r="S21" s="252">
         <v>44755</v>
@@ -11725,8 +11814,8 @@
       <c r="AG72" s="121"/>
     </row>
     <row r="73" spans="22:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AF73" s="288"/>
-      <c r="AG73" s="289"/>
+      <c r="AF73" s="295"/>
+      <c r="AG73" s="296"/>
     </row>
     <row r="78" spans="22:33" x14ac:dyDescent="0.3">
       <c r="AF78" s="54"/>
@@ -11770,25 +11859,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="283" t="s">
+      <c r="B1" s="290" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="284"/>
-      <c r="G1" s="285"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="292"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12378,12 +12467,12 @@
       <c r="B31" s="37"/>
       <c r="C31" s="38"/>
       <c r="D31" s="198"/>
-      <c r="E31" s="276">
+      <c r="E31" s="283">
         <f>E27-G27</f>
         <v>210247</v>
       </c>
-      <c r="F31" s="277"/>
-      <c r="G31" s="278"/>
+      <c r="F31" s="284"/>
+      <c r="G31" s="285"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -12399,11 +12488,11 @@
       <c r="B33" s="37"/>
       <c r="C33" s="38"/>
       <c r="D33" s="198"/>
-      <c r="E33" s="279" t="s">
+      <c r="E33" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="279"/>
-      <c r="G33" s="279"/>
+      <c r="F33" s="286"/>
+      <c r="G33" s="286"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -12566,7 +12655,7 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -12584,25 +12673,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="283" t="s">
+      <c r="B1" s="290" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="284"/>
-      <c r="G1" s="285"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="292"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="271"/>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13436,12 +13525,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="198"/>
-      <c r="E47" s="276">
+      <c r="E47" s="283">
         <f>E43-G43</f>
         <v>328464</v>
       </c>
-      <c r="F47" s="277"/>
-      <c r="G47" s="278"/>
+      <c r="F47" s="284"/>
+      <c r="G47" s="285"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -13457,11 +13546,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="198"/>
-      <c r="E49" s="279" t="s">
+      <c r="E49" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="279"/>
-      <c r="G49" s="279"/>
+      <c r="F49" s="286"/>
+      <c r="G49" s="286"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -13617,6 +13706,693 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="B2:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="114" customWidth="1"/>
+    <col min="2" max="2" width="14" style="114" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="114"/>
+    <col min="4" max="4" width="15" style="114" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="114" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="208" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="208"/>
+    <col min="9" max="9" width="19.5703125" style="208" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="208" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="114"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="311" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="311"/>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
+      <c r="F2" s="311"/>
+      <c r="G2" s="311"/>
+      <c r="H2" s="311"/>
+      <c r="I2" s="311"/>
+      <c r="J2" s="311"/>
+    </row>
+    <row r="3" spans="2:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="132" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="172" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="128">
+        <v>44797</v>
+      </c>
+      <c r="C4" s="133">
+        <v>44803</v>
+      </c>
+      <c r="D4" s="129">
+        <v>24359</v>
+      </c>
+      <c r="E4" s="129">
+        <f>D4</f>
+        <v>24359</v>
+      </c>
+      <c r="F4" s="187"/>
+      <c r="G4" s="178">
+        <v>44824</v>
+      </c>
+      <c r="H4" s="215">
+        <v>44830</v>
+      </c>
+      <c r="I4" s="179">
+        <v>41910</v>
+      </c>
+      <c r="J4" s="20">
+        <f>E28+I4</f>
+        <v>876750.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="128">
+        <v>44798</v>
+      </c>
+      <c r="C5" s="134">
+        <v>44803</v>
+      </c>
+      <c r="D5" s="20">
+        <v>54088</v>
+      </c>
+      <c r="E5" s="20">
+        <f>E4+D5</f>
+        <v>78447</v>
+      </c>
+      <c r="G5" s="178">
+        <v>44825</v>
+      </c>
+      <c r="H5" s="215">
+        <v>44830</v>
+      </c>
+      <c r="I5" s="179">
+        <v>60450</v>
+      </c>
+      <c r="J5" s="20">
+        <f>J4+I5</f>
+        <v>937200.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="128">
+        <v>44799</v>
+      </c>
+      <c r="C6" s="134">
+        <v>44803</v>
+      </c>
+      <c r="D6" s="20">
+        <v>41955</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" ref="E6:E28" si="0">E5+D6</f>
+        <v>120402</v>
+      </c>
+      <c r="G6" s="178">
+        <v>44825</v>
+      </c>
+      <c r="H6" s="215">
+        <v>44830</v>
+      </c>
+      <c r="I6" s="179">
+        <v>21000</v>
+      </c>
+      <c r="J6" s="20">
+        <f t="shared" ref="J6:J20" si="1">J5+I6</f>
+        <v>958200.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="128">
+        <v>44800</v>
+      </c>
+      <c r="C7" s="134">
+        <v>44803</v>
+      </c>
+      <c r="D7" s="20">
+        <v>26081</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="0"/>
+        <v>146483</v>
+      </c>
+      <c r="G7" s="178">
+        <v>44826</v>
+      </c>
+      <c r="H7" s="215">
+        <v>44830</v>
+      </c>
+      <c r="I7" s="179">
+        <v>10450</v>
+      </c>
+      <c r="J7" s="20">
+        <f t="shared" si="1"/>
+        <v>968650.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="128">
+        <v>44801</v>
+      </c>
+      <c r="C8" s="134">
+        <v>44803</v>
+      </c>
+      <c r="D8" s="20">
+        <v>55305.5</v>
+      </c>
+      <c r="E8" s="20">
+        <f t="shared" si="0"/>
+        <v>201788.5</v>
+      </c>
+      <c r="G8" s="178">
+        <v>44826</v>
+      </c>
+      <c r="H8" s="215">
+        <v>44830</v>
+      </c>
+      <c r="I8" s="184">
+        <v>33783</v>
+      </c>
+      <c r="J8" s="20">
+        <f t="shared" si="1"/>
+        <v>1002433.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="128">
+        <v>44802</v>
+      </c>
+      <c r="C9" s="134">
+        <v>44803</v>
+      </c>
+      <c r="D9" s="20">
+        <v>70671</v>
+      </c>
+      <c r="E9" s="20">
+        <f t="shared" si="0"/>
+        <v>272459.5</v>
+      </c>
+      <c r="G9" s="178">
+        <v>44827</v>
+      </c>
+      <c r="H9" s="215">
+        <v>44830</v>
+      </c>
+      <c r="I9" s="184">
+        <v>79814</v>
+      </c>
+      <c r="J9" s="20">
+        <f t="shared" si="1"/>
+        <v>1082247.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="128">
+        <v>44813</v>
+      </c>
+      <c r="C10" s="134">
+        <v>44816</v>
+      </c>
+      <c r="D10" s="20">
+        <v>9891.5</v>
+      </c>
+      <c r="E10" s="20">
+        <f t="shared" si="0"/>
+        <v>282351</v>
+      </c>
+      <c r="G10" s="178">
+        <v>44828</v>
+      </c>
+      <c r="H10" s="215">
+        <v>44830</v>
+      </c>
+      <c r="I10" s="184">
+        <v>16552.5</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="1"/>
+        <v>1098800</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="128">
+        <v>44814</v>
+      </c>
+      <c r="C11" s="134">
+        <v>44816</v>
+      </c>
+      <c r="D11" s="20">
+        <v>19854.5</v>
+      </c>
+      <c r="E11" s="20">
+        <f t="shared" si="0"/>
+        <v>302205.5</v>
+      </c>
+      <c r="G11" s="178">
+        <v>44829</v>
+      </c>
+      <c r="H11" s="215">
+        <v>44830</v>
+      </c>
+      <c r="I11" s="184">
+        <v>36765</v>
+      </c>
+      <c r="J11" s="20">
+        <f t="shared" si="1"/>
+        <v>1135565</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="128">
+        <v>44815</v>
+      </c>
+      <c r="C12" s="134">
+        <v>44816</v>
+      </c>
+      <c r="D12" s="20">
+        <v>20000</v>
+      </c>
+      <c r="E12" s="20">
+        <f t="shared" si="0"/>
+        <v>322205.5</v>
+      </c>
+      <c r="G12" s="178">
+        <v>44829</v>
+      </c>
+      <c r="H12" s="215">
+        <v>44834</v>
+      </c>
+      <c r="I12" s="184">
+        <v>10000</v>
+      </c>
+      <c r="J12" s="20">
+        <f t="shared" si="1"/>
+        <v>1145565</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="128">
+        <v>44815</v>
+      </c>
+      <c r="C13" s="134">
+        <v>44816</v>
+      </c>
+      <c r="D13" s="22">
+        <v>23616.5</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" si="0"/>
+        <v>345822</v>
+      </c>
+      <c r="G13" s="178">
+        <v>44830</v>
+      </c>
+      <c r="H13" s="215">
+        <v>44834</v>
+      </c>
+      <c r="I13" s="184">
+        <v>65768</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" si="1"/>
+        <v>1211333</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="128">
+        <v>44816</v>
+      </c>
+      <c r="C14" s="134">
+        <v>44819</v>
+      </c>
+      <c r="D14" s="20">
+        <v>44408.5</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" si="0"/>
+        <v>390230.5</v>
+      </c>
+      <c r="G14" s="178">
+        <v>44831</v>
+      </c>
+      <c r="H14" s="215">
+        <v>44834</v>
+      </c>
+      <c r="I14" s="184">
+        <v>56143</v>
+      </c>
+      <c r="J14" s="20">
+        <f t="shared" si="1"/>
+        <v>1267476</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="128">
+        <v>44816</v>
+      </c>
+      <c r="C15" s="134">
+        <v>44816</v>
+      </c>
+      <c r="D15" s="20">
+        <v>6406</v>
+      </c>
+      <c r="E15" s="20">
+        <f t="shared" si="0"/>
+        <v>396636.5</v>
+      </c>
+      <c r="G15" s="178">
+        <v>44832</v>
+      </c>
+      <c r="H15" s="215">
+        <v>44834</v>
+      </c>
+      <c r="I15" s="184">
+        <v>75888</v>
+      </c>
+      <c r="J15" s="20">
+        <f t="shared" si="1"/>
+        <v>1343364</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="128">
+        <v>44817</v>
+      </c>
+      <c r="C16" s="134">
+        <v>44819</v>
+      </c>
+      <c r="D16" s="20">
+        <v>49877</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" si="0"/>
+        <v>446513.5</v>
+      </c>
+      <c r="G16" s="178">
+        <v>44833</v>
+      </c>
+      <c r="H16" s="215">
+        <v>44834</v>
+      </c>
+      <c r="I16" s="184">
+        <v>75617</v>
+      </c>
+      <c r="J16" s="20">
+        <f t="shared" si="1"/>
+        <v>1418981</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="128">
+        <v>44817</v>
+      </c>
+      <c r="C17" s="134">
+        <v>44819</v>
+      </c>
+      <c r="D17" s="20">
+        <v>20000</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" si="0"/>
+        <v>466513.5</v>
+      </c>
+      <c r="G17" s="178"/>
+      <c r="H17" s="215"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="20">
+        <f t="shared" si="1"/>
+        <v>1418981</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="128">
+        <v>44817</v>
+      </c>
+      <c r="C18" s="134">
+        <v>44819</v>
+      </c>
+      <c r="D18" s="20">
+        <v>17086</v>
+      </c>
+      <c r="E18" s="20">
+        <f t="shared" si="0"/>
+        <v>483599.5</v>
+      </c>
+      <c r="G18" s="178"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="20">
+        <f t="shared" si="1"/>
+        <v>1418981</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="128">
+        <v>44818</v>
+      </c>
+      <c r="C19" s="134">
+        <v>44819</v>
+      </c>
+      <c r="D19" s="20">
+        <v>71145</v>
+      </c>
+      <c r="E19" s="20">
+        <f t="shared" si="0"/>
+        <v>554744.5</v>
+      </c>
+      <c r="F19" s="185"/>
+      <c r="G19" s="281">
+        <v>44799</v>
+      </c>
+      <c r="H19" s="279" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="280">
+        <v>-2047423.76</v>
+      </c>
+      <c r="J19" s="276">
+        <f t="shared" si="1"/>
+        <v>-628442.76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="128">
+        <v>44818</v>
+      </c>
+      <c r="C20" s="134">
+        <v>44819</v>
+      </c>
+      <c r="D20" s="20">
+        <v>26000</v>
+      </c>
+      <c r="E20" s="20">
+        <f t="shared" si="0"/>
+        <v>580744.5</v>
+      </c>
+      <c r="G20" s="318"/>
+      <c r="H20" s="319"/>
+      <c r="I20" s="320"/>
+      <c r="J20" s="276">
+        <f t="shared" si="1"/>
+        <v>-628442.76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="128">
+        <v>44819</v>
+      </c>
+      <c r="C21" s="134">
+        <v>44821</v>
+      </c>
+      <c r="D21" s="20">
+        <v>61550</v>
+      </c>
+      <c r="E21" s="20">
+        <f t="shared" si="0"/>
+        <v>642294.5</v>
+      </c>
+      <c r="G21" s="321"/>
+      <c r="H21" s="322"/>
+      <c r="I21" s="323"/>
+      <c r="J21" s="277"/>
+    </row>
+    <row r="22" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="128">
+        <v>44819</v>
+      </c>
+      <c r="C22" s="134">
+        <v>44821</v>
+      </c>
+      <c r="D22" s="20">
+        <v>24500</v>
+      </c>
+      <c r="E22" s="20">
+        <f t="shared" si="0"/>
+        <v>666794.5</v>
+      </c>
+      <c r="G22" s="278"/>
+      <c r="H22" s="278"/>
+      <c r="I22" s="278"/>
+      <c r="J22" s="278"/>
+    </row>
+    <row r="23" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="128">
+        <v>44819</v>
+      </c>
+      <c r="C23" s="134">
+        <v>44821</v>
+      </c>
+      <c r="D23" s="20">
+        <v>23109</v>
+      </c>
+      <c r="E23" s="20">
+        <f t="shared" si="0"/>
+        <v>689903.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="128">
+        <v>44820</v>
+      </c>
+      <c r="C24" s="134">
+        <v>44830</v>
+      </c>
+      <c r="D24" s="20">
+        <v>14000</v>
+      </c>
+      <c r="E24" s="20">
+        <f t="shared" si="0"/>
+        <v>703903.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="176">
+        <v>44821</v>
+      </c>
+      <c r="C25" s="134">
+        <v>44830</v>
+      </c>
+      <c r="D25" s="20">
+        <v>16617</v>
+      </c>
+      <c r="E25" s="20">
+        <f t="shared" si="0"/>
+        <v>720520.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="178">
+        <v>44821</v>
+      </c>
+      <c r="C26" s="275">
+        <v>44830</v>
+      </c>
+      <c r="D26" s="179">
+        <v>1040</v>
+      </c>
+      <c r="E26" s="20">
+        <f t="shared" si="0"/>
+        <v>721560.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="178">
+        <v>44822</v>
+      </c>
+      <c r="C27" s="275">
+        <v>44830</v>
+      </c>
+      <c r="D27" s="179">
+        <v>60116</v>
+      </c>
+      <c r="E27" s="20">
+        <f t="shared" si="0"/>
+        <v>781676.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="178">
+        <v>44823</v>
+      </c>
+      <c r="C28" s="275">
+        <v>44830</v>
+      </c>
+      <c r="D28" s="179">
+        <v>53164</v>
+      </c>
+      <c r="E28" s="20">
+        <f t="shared" si="0"/>
+        <v>834840.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="267"/>
+      <c r="C29" s="267"/>
+      <c r="D29" s="267"/>
+      <c r="E29" s="267"/>
+    </row>
+    <row r="30" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="268"/>
+      <c r="C30" s="268"/>
+      <c r="D30" s="268"/>
+      <c r="E30" s="268"/>
+    </row>
+    <row r="31" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="268"/>
+      <c r="C31" s="268"/>
+      <c r="D31" s="268"/>
+      <c r="E31" s="268"/>
+    </row>
+    <row r="32" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="268"/>
+      <c r="C32" s="268"/>
+      <c r="D32" s="268"/>
+      <c r="E32" s="268"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="G20:I21"/>
+  </mergeCells>
+  <pageMargins left="0.15748031496062992" right="0.11811023622047245" top="0.59055118110236227" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13653,25 +14429,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="280" t="s">
+      <c r="B1" s="287" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="282"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="289"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -15401,12 +16177,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="276">
+      <c r="E76" s="283">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="277"/>
-      <c r="G76" s="278"/>
+      <c r="F76" s="284"/>
+      <c r="G76" s="285"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -15422,11 +16198,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="279" t="s">
+      <c r="E78" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="279"/>
-      <c r="G78" s="279"/>
+      <c r="F78" s="286"/>
+      <c r="G78" s="286"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -15567,25 +16343,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="280" t="s">
+      <c r="B1" s="287" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="282"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="289"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -16434,12 +17210,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="276">
+      <c r="E41" s="283">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="277"/>
-      <c r="G41" s="278"/>
+      <c r="F41" s="284"/>
+      <c r="G41" s="285"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -16455,11 +17231,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="279" t="s">
+      <c r="E43" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="279"/>
-      <c r="G43" s="279"/>
+      <c r="F43" s="286"/>
+      <c r="G43" s="286"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -16603,25 +17379,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="283" t="s">
+      <c r="B1" s="290" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="284"/>
-      <c r="G1" s="285"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="292"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -17961,12 +18737,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="276">
+      <c r="E60" s="283">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="277"/>
-      <c r="G60" s="278"/>
+      <c r="F60" s="284"/>
+      <c r="G60" s="285"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -17982,11 +18758,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="279" t="s">
+      <c r="E62" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="279"/>
-      <c r="G62" s="279"/>
+      <c r="F62" s="286"/>
+      <c r="G62" s="286"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -18127,25 +18903,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="283" t="s">
+      <c r="B1" s="290" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="284"/>
-      <c r="G1" s="285"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="292"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -19546,12 +20322,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="276">
+      <c r="E61" s="283">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="277"/>
-      <c r="G61" s="278"/>
+      <c r="F61" s="284"/>
+      <c r="G61" s="285"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -19567,11 +20343,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="279" t="s">
+      <c r="E63" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="279"/>
-      <c r="G63" s="279"/>
+      <c r="F63" s="286"/>
+      <c r="G63" s="286"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -19712,25 +20488,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="283" t="s">
+      <c r="B1" s="290" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="284"/>
-      <c r="G1" s="285"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="292"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -21180,12 +21956,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="276">
+      <c r="E64" s="283">
         <f>E60-G60</f>
         <v>0</v>
       </c>
-      <c r="F64" s="277"/>
-      <c r="G64" s="278"/>
+      <c r="F64" s="284"/>
+      <c r="G64" s="285"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -21201,11 +21977,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="279" t="s">
+      <c r="E66" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="279"/>
-      <c r="G66" s="279"/>
+      <c r="F66" s="286"/>
+      <c r="G66" s="286"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -21346,25 +22122,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="283" t="s">
+      <c r="B1" s="290" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="284"/>
-      <c r="G1" s="285"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="292"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -22829,12 +23605,12 @@
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="198"/>
-      <c r="E65" s="276">
+      <c r="E65" s="283">
         <f>E61-G61</f>
         <v>0</v>
       </c>
-      <c r="F65" s="277"/>
-      <c r="G65" s="278"/>
+      <c r="F65" s="284"/>
+      <c r="G65" s="285"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -22850,11 +23626,11 @@
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="198"/>
-      <c r="E67" s="279" t="s">
+      <c r="E67" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="279"/>
-      <c r="G67" s="279"/>
+      <c r="F67" s="286"/>
+      <c r="G67" s="286"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -23036,25 +23812,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="283" t="s">
+      <c r="B1" s="290" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="284"/>
-      <c r="G1" s="285"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="292"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -24005,12 +24781,12 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="276">
+      <c r="E43" s="283">
         <f>E39-G39</f>
         <v>0</v>
       </c>
-      <c r="F43" s="277"/>
-      <c r="G43" s="278"/>
+      <c r="F43" s="284"/>
+      <c r="G43" s="285"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -24026,11 +24802,11 @@
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="279" t="s">
+      <c r="E45" s="286" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="279"/>
-      <c r="G45" s="279"/>
+      <c r="F45" s="286"/>
+      <c r="G45" s="286"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  4 CARNES   ZAVALETA  SEPTIEMBRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  4 CARNES   ZAVALETA  SEPTIEMBRE   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="15" activeTab="15"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="14" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="166">
   <si>
     <t>REMISION</t>
   </si>
@@ -11842,7 +11842,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12651,12 +12651,12 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="0" tint="-0.34998626667073579"/>
+    <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13132,11 +13132,15 @@
       <c r="E22" s="20">
         <v>619</v>
       </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="84"/>
+      <c r="F22" s="87">
+        <v>44832</v>
+      </c>
+      <c r="G22" s="84">
+        <v>619</v>
+      </c>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -13237,123 +13241,167 @@
       <c r="E27" s="20">
         <v>28602</v>
       </c>
-      <c r="F27" s="87"/>
-      <c r="G27" s="84"/>
+      <c r="F27" s="87">
+        <v>44831</v>
+      </c>
+      <c r="G27" s="84">
+        <v>28602</v>
+      </c>
       <c r="H27" s="18">
         <f t="shared" si="0"/>
-        <v>28602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
+      <c r="A28" s="30">
+        <v>44828</v>
+      </c>
       <c r="B28" s="13">
         <v>501</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="20"/>
+      <c r="D28" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="20">
+        <v>863</v>
+      </c>
       <c r="F28" s="87"/>
       <c r="G28" s="84"/>
       <c r="H28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>863</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
+      <c r="A29" s="30">
+        <v>44828</v>
+      </c>
       <c r="B29" s="13">
         <v>502</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="20">
+        <v>4150</v>
+      </c>
       <c r="F29" s="87"/>
       <c r="G29" s="84"/>
       <c r="H29" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
+      <c r="A30" s="30">
+        <v>44828</v>
+      </c>
       <c r="B30" s="13">
         <v>503</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="20">
+        <v>358</v>
+      </c>
       <c r="F30" s="87"/>
       <c r="G30" s="84"/>
       <c r="H30" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
+      <c r="A31" s="30">
+        <v>44830</v>
+      </c>
       <c r="B31" s="13">
         <v>504</v>
       </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="20">
+        <v>283</v>
+      </c>
       <c r="F31" s="87"/>
       <c r="G31" s="84"/>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
+      <c r="A32" s="30">
+        <v>44830</v>
+      </c>
       <c r="B32" s="13">
         <v>505</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="20"/>
+      <c r="D32" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="20">
+        <v>7700</v>
+      </c>
       <c r="F32" s="87"/>
       <c r="G32" s="84"/>
       <c r="H32" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
+      <c r="A33" s="30">
+        <v>44832</v>
+      </c>
       <c r="B33" s="13">
         <v>506</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="20"/>
+      <c r="D33" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="20">
+        <v>1727</v>
+      </c>
       <c r="F33" s="87"/>
       <c r="G33" s="84"/>
       <c r="H33" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
+      <c r="A34" s="30">
+        <v>44832</v>
+      </c>
       <c r="B34" s="13">
         <v>507</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="20"/>
+      <c r="D34" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="20">
+        <v>2700</v>
+      </c>
       <c r="F34" s="87"/>
       <c r="G34" s="84"/>
       <c r="H34" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="30"/>
-      <c r="B35" s="13">
-        <v>508</v>
-      </c>
+      <c r="B35" s="13"/>
       <c r="C35" s="24"/>
       <c r="D35" s="26"/>
       <c r="E35" s="20"/>
@@ -13366,9 +13414,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
-      <c r="B36" s="13">
-        <v>509</v>
-      </c>
+      <c r="B36" s="13"/>
       <c r="C36" s="24"/>
       <c r="D36" s="26"/>
       <c r="E36" s="20"/>
@@ -13381,9 +13427,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="30"/>
-      <c r="B37" s="13">
-        <v>510</v>
-      </c>
+      <c r="B37" s="13"/>
       <c r="C37" s="24"/>
       <c r="D37" s="26"/>
       <c r="E37" s="20"/>
@@ -13396,9 +13440,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="30"/>
-      <c r="B38" s="13">
-        <v>511</v>
-      </c>
+      <c r="B38" s="13"/>
       <c r="C38" s="24"/>
       <c r="D38" s="26"/>
       <c r="E38" s="20"/>
@@ -13411,9 +13453,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
-      <c r="B39" s="13">
-        <v>512</v>
-      </c>
+      <c r="B39" s="13"/>
       <c r="C39" s="24"/>
       <c r="D39" s="26"/>
       <c r="E39" s="20"/>
@@ -13426,9 +13466,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="30"/>
-      <c r="B40" s="13">
-        <v>513</v>
-      </c>
+      <c r="B40" s="13"/>
       <c r="C40" s="24"/>
       <c r="D40" s="26"/>
       <c r="E40" s="20"/>
@@ -13474,16 +13512,16 @@
       <c r="D43" s="198"/>
       <c r="E43" s="39">
         <f>SUM(E4:E42)</f>
-        <v>363057</v>
+        <v>380838</v>
       </c>
       <c r="F43" s="39"/>
       <c r="G43" s="39">
         <f>SUM(G4:G42)</f>
-        <v>34593</v>
+        <v>63814</v>
       </c>
       <c r="H43" s="40">
         <f>SUM(H4:H42)</f>
-        <v>328464</v>
+        <v>317024</v>
       </c>
       <c r="I43" s="2"/>
     </row>
@@ -13527,7 +13565,7 @@
       <c r="D47" s="198"/>
       <c r="E47" s="283">
         <f>E43-G43</f>
-        <v>328464</v>
+        <v>317024</v>
       </c>
       <c r="F47" s="284"/>
       <c r="G47" s="285"/>
@@ -13712,7 +13750,7 @@
   </sheetPr>
   <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  4 CARNES   ZAVALETA  SEPTIEMBRE   2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #09 SEPTIEMBRE 2022/CREDITOS  4 CARNES   ZAVALETA  SEPTIEMBRE   2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="14" activeTab="14"/>
+    <workbookView xWindow="6015" yWindow="330" windowWidth="13905" windowHeight="10920" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="168">
   <si>
     <t>REMISION</t>
   </si>
@@ -721,6 +721,12 @@
   <si>
     <t>OCTAVIO ZAMORA LOPEZ</t>
   </si>
+  <si>
+    <t>APLICADO 7-Octubre</t>
+  </si>
+  <si>
+    <t>saldo x pagar</t>
+  </si>
 </sst>
 </file>
 
@@ -1005,7 +1011,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1108,8 +1114,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1498,12 +1510,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="324">
+  <cellXfs count="331">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2034,16 +2087,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="28" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2152,24 +2197,33 @@
     <xf numFmtId="0" fontId="25" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="18" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="22" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="28" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="28" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2924,13 +2978,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>656198</xdr:colOff>
+      <xdr:colOff>713348</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>103983</xdr:rowOff>
     </xdr:to>
@@ -2949,7 +3003,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9134475" y="304800"/>
+          <a:off x="9191625" y="304800"/>
           <a:ext cx="8219048" cy="6333333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4208,24 +4262,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="287" t="s">
+      <c r="B1" s="283" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="289"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="285"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="282" t="s">
+      <c r="B2" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -5371,12 +5425,12 @@
     <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="37"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="283">
+      <c r="D55" s="279">
         <f>D51-F51</f>
         <v>0</v>
       </c>
-      <c r="E55" s="284"/>
-      <c r="F55" s="285"/>
+      <c r="E55" s="280"/>
+      <c r="F55" s="281"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -5390,11 +5444,11 @@
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="37"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="286" t="s">
+      <c r="D57" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="286"/>
-      <c r="F57" s="286"/>
+      <c r="E57" s="282"/>
+      <c r="F57" s="282"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -5523,25 +5577,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="290" t="s">
+      <c r="B1" s="286" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="292"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="288"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="282" t="s">
+      <c r="B2" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6638,12 +6692,12 @@
       <c r="B50" s="37"/>
       <c r="C50" s="38"/>
       <c r="D50" s="198"/>
-      <c r="E50" s="283">
+      <c r="E50" s="279">
         <f>E46-G46</f>
         <v>0</v>
       </c>
-      <c r="F50" s="284"/>
-      <c r="G50" s="285"/>
+      <c r="F50" s="280"/>
+      <c r="G50" s="281"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -6659,11 +6713,11 @@
       <c r="B52" s="37"/>
       <c r="C52" s="38"/>
       <c r="D52" s="198"/>
-      <c r="E52" s="286" t="s">
+      <c r="E52" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="286"/>
-      <c r="G52" s="286"/>
+      <c r="F52" s="282"/>
+      <c r="G52" s="282"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -6862,18 +6916,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="Q1" s="293"/>
-      <c r="R1" s="294"/>
-      <c r="S1" s="294"/>
-      <c r="T1" s="294"/>
-      <c r="U1" s="294"/>
-      <c r="V1" s="294"/>
-      <c r="W1" s="294"/>
-      <c r="X1" s="294"/>
-      <c r="Y1" s="294"/>
-      <c r="Z1" s="294"/>
-      <c r="AA1" s="294"/>
-      <c r="AB1" s="294"/>
+      <c r="Q1" s="289"/>
+      <c r="R1" s="290"/>
+      <c r="S1" s="290"/>
+      <c r="T1" s="290"/>
+      <c r="U1" s="290"/>
+      <c r="V1" s="290"/>
+      <c r="W1" s="290"/>
+      <c r="X1" s="290"/>
+      <c r="Y1" s="290"/>
+      <c r="Z1" s="290"/>
+      <c r="AA1" s="290"/>
+      <c r="AB1" s="290"/>
     </row>
     <row r="2" spans="2:35" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="155" t="s">
@@ -7527,10 +7581,10 @@
         <v>101</v>
       </c>
       <c r="R19" s="128"/>
-      <c r="S19" s="297" t="s">
+      <c r="S19" s="293" t="s">
         <v>95</v>
       </c>
-      <c r="T19" s="298"/>
+      <c r="T19" s="294"/>
       <c r="U19" s="77">
         <f t="shared" si="1"/>
         <v>11454.260000000009</v>
@@ -7909,20 +7963,20 @@
       </c>
     </row>
     <row r="36" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="299" t="s">
+      <c r="B36" s="295" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="300"/>
-      <c r="D36" s="301"/>
+      <c r="C36" s="296"/>
+      <c r="D36" s="297"/>
       <c r="E36" s="183">
         <f t="shared" si="0"/>
         <v>0.31000000005587935</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="302"/>
-      <c r="C37" s="303"/>
-      <c r="D37" s="304"/>
+      <c r="B37" s="298"/>
+      <c r="C37" s="299"/>
+      <c r="D37" s="300"/>
     </row>
     <row r="38" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:28" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -7936,12 +7990,12 @@
     </row>
     <row r="41" spans="1:28" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="232"/>
-      <c r="B41" s="305" t="s">
+      <c r="B41" s="301" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="306"/>
-      <c r="D41" s="306"/>
-      <c r="E41" s="307"/>
+      <c r="C41" s="302"/>
+      <c r="D41" s="302"/>
+      <c r="E41" s="303"/>
       <c r="F41" s="233"/>
       <c r="AA41" s="173"/>
     </row>
@@ -8466,8 +8520,8 @@
       <c r="D65" s="247"/>
       <c r="E65" s="248"/>
       <c r="F65" s="249"/>
-      <c r="AA65" s="295"/>
-      <c r="AB65" s="296"/>
+      <c r="AA65" s="291"/>
+      <c r="AB65" s="292"/>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="AA70" s="54"/>
@@ -8511,25 +8565,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="290" t="s">
+      <c r="B1" s="286" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="292"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="288"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="282" t="s">
+      <c r="B2" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -9712,12 +9766,12 @@
       <c r="B55" s="37"/>
       <c r="C55" s="38"/>
       <c r="D55" s="198"/>
-      <c r="E55" s="283">
+      <c r="E55" s="279">
         <f>E51-G51</f>
         <v>40994</v>
       </c>
-      <c r="F55" s="284"/>
-      <c r="G55" s="285"/>
+      <c r="F55" s="280"/>
+      <c r="G55" s="281"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -9733,11 +9787,11 @@
       <c r="B57" s="37"/>
       <c r="C57" s="38"/>
       <c r="D57" s="198"/>
-      <c r="E57" s="286" t="s">
+      <c r="E57" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="286"/>
-      <c r="G57" s="286"/>
+      <c r="F57" s="282"/>
+      <c r="G57" s="282"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -9956,22 +10010,22 @@
       <c r="AG1" s="217"/>
     </row>
     <row r="2" spans="2:40" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="311" t="s">
+      <c r="B2" s="307" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="311"/>
-      <c r="D2" s="311"/>
-      <c r="E2" s="311"/>
-      <c r="F2" s="311"/>
-      <c r="G2" s="311"/>
-      <c r="H2" s="311"/>
-      <c r="I2" s="311"/>
-      <c r="J2" s="311"/>
-      <c r="S2" s="308" t="s">
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="307"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="307"/>
+      <c r="J2" s="307"/>
+      <c r="S2" s="304" t="s">
         <v>160</v>
       </c>
-      <c r="T2" s="309"/>
-      <c r="U2" s="310"/>
+      <c r="T2" s="305"/>
+      <c r="U2" s="306"/>
       <c r="V2" s="266"/>
       <c r="W2" s="170" t="s">
         <v>91</v>
@@ -11003,10 +11057,10 @@
       </c>
       <c r="V19" s="266"/>
       <c r="W19" s="264"/>
-      <c r="X19" s="297" t="s">
+      <c r="X19" s="293" t="s">
         <v>95</v>
       </c>
-      <c r="Y19" s="298"/>
+      <c r="Y19" s="294"/>
       <c r="Z19" s="77">
         <f t="shared" si="2"/>
         <v>11454.260000000009</v>
@@ -11037,11 +11091,11 @@
         <f t="shared" si="3"/>
         <v>903828</v>
       </c>
-      <c r="G20" s="312" t="s">
+      <c r="G20" s="308" t="s">
         <v>159</v>
       </c>
-      <c r="H20" s="313"/>
-      <c r="I20" s="314"/>
+      <c r="H20" s="309"/>
+      <c r="I20" s="310"/>
       <c r="J20" s="183">
         <f t="shared" si="0"/>
         <v>-0.83000000007450581</v>
@@ -11092,9 +11146,9 @@
         <f t="shared" si="3"/>
         <v>937147</v>
       </c>
-      <c r="G21" s="315"/>
-      <c r="H21" s="316"/>
-      <c r="I21" s="317"/>
+      <c r="G21" s="311"/>
+      <c r="H21" s="312"/>
+      <c r="I21" s="313"/>
       <c r="J21" s="114"/>
       <c r="S21" s="252">
         <v>44755</v>
@@ -11814,8 +11868,8 @@
       <c r="AG72" s="121"/>
     </row>
     <row r="73" spans="22:33" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AF73" s="295"/>
-      <c r="AG73" s="296"/>
+      <c r="AF73" s="291"/>
+      <c r="AG73" s="292"/>
     </row>
     <row r="78" spans="22:33" x14ac:dyDescent="0.3">
       <c r="AF78" s="54"/>
@@ -11859,25 +11913,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="290" t="s">
+      <c r="B1" s="286" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="292"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="288"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="282" t="s">
+      <c r="B2" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -12467,12 +12521,12 @@
       <c r="B31" s="37"/>
       <c r="C31" s="38"/>
       <c r="D31" s="198"/>
-      <c r="E31" s="283">
+      <c r="E31" s="279">
         <f>E27-G27</f>
         <v>210247</v>
       </c>
-      <c r="F31" s="284"/>
-      <c r="G31" s="285"/>
+      <c r="F31" s="280"/>
+      <c r="G31" s="281"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -12488,11 +12542,11 @@
       <c r="B33" s="37"/>
       <c r="C33" s="38"/>
       <c r="D33" s="198"/>
-      <c r="E33" s="286" t="s">
+      <c r="E33" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="286"/>
-      <c r="G33" s="286"/>
+      <c r="F33" s="282"/>
+      <c r="G33" s="282"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -12655,7 +12709,7 @@
   </sheetPr>
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -12673,25 +12727,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="290" t="s">
+      <c r="B1" s="286" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="292"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="288"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="271"/>
-      <c r="B2" s="282" t="s">
+      <c r="B2" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -13563,12 +13617,12 @@
       <c r="B47" s="37"/>
       <c r="C47" s="38"/>
       <c r="D47" s="198"/>
-      <c r="E47" s="283">
+      <c r="E47" s="279">
         <f>E43-G43</f>
         <v>317024</v>
       </c>
-      <c r="F47" s="284"/>
-      <c r="G47" s="285"/>
+      <c r="F47" s="280"/>
+      <c r="G47" s="281"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -13584,11 +13638,11 @@
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
       <c r="D49" s="198"/>
-      <c r="E49" s="286" t="s">
+      <c r="E49" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="286"/>
-      <c r="G49" s="286"/>
+      <c r="F49" s="282"/>
+      <c r="G49" s="282"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -13750,8 +13804,8 @@
   </sheetPr>
   <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13769,17 +13823,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="311" t="s">
+      <c r="B2" s="307" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="311"/>
-      <c r="D2" s="311"/>
-      <c r="E2" s="311"/>
-      <c r="F2" s="311"/>
-      <c r="G2" s="311"/>
-      <c r="H2" s="311"/>
-      <c r="I2" s="311"/>
-      <c r="J2" s="311"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="307"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="307"/>
+      <c r="J2" s="307"/>
     </row>
     <row r="3" spans="2:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="130" t="s">
@@ -14182,7 +14236,7 @@
         <v>1418981</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="128">
         <v>44817</v>
       </c>
@@ -14196,9 +14250,9 @@
         <f t="shared" si="0"/>
         <v>483599.5</v>
       </c>
-      <c r="G18" s="178"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="182"/>
+      <c r="G18" s="325"/>
+      <c r="H18" s="326"/>
+      <c r="I18" s="327"/>
       <c r="J18" s="20">
         <f t="shared" si="1"/>
         <v>1418981</v>
@@ -14219,21 +14273,21 @@
         <v>554744.5</v>
       </c>
       <c r="F19" s="185"/>
-      <c r="G19" s="281">
+      <c r="G19" s="328">
         <v>44799</v>
       </c>
-      <c r="H19" s="279" t="s">
+      <c r="H19" s="329" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="280">
+      <c r="I19" s="330">
         <v>-2047423.76</v>
       </c>
-      <c r="J19" s="276">
+      <c r="J19" s="324">
         <f t="shared" si="1"/>
         <v>-628442.76</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="128">
         <v>44818</v>
       </c>
@@ -14247,15 +14301,15 @@
         <f t="shared" si="0"/>
         <v>580744.5</v>
       </c>
-      <c r="G20" s="318"/>
-      <c r="H20" s="319"/>
-      <c r="I20" s="320"/>
-      <c r="J20" s="276">
+      <c r="G20" s="322"/>
+      <c r="H20" s="322"/>
+      <c r="I20" s="322"/>
+      <c r="J20" s="323">
         <f t="shared" si="1"/>
         <v>-628442.76</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="128">
         <v>44819</v>
       </c>
@@ -14269,12 +14323,12 @@
         <f t="shared" si="0"/>
         <v>642294.5</v>
       </c>
-      <c r="G21" s="321"/>
+      <c r="G21" s="322"/>
       <c r="H21" s="322"/>
-      <c r="I21" s="323"/>
-      <c r="J21" s="277"/>
-    </row>
-    <row r="22" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="322"/>
+      <c r="J21" s="276"/>
+    </row>
+    <row r="22" spans="2:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="128">
         <v>44819</v>
       </c>
@@ -14288,12 +14342,12 @@
         <f t="shared" si="0"/>
         <v>666794.5</v>
       </c>
-      <c r="G22" s="278"/>
-      <c r="H22" s="278"/>
-      <c r="I22" s="278"/>
-      <c r="J22" s="278"/>
-    </row>
-    <row r="23" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="277"/>
+      <c r="H22" s="277"/>
+      <c r="I22" s="277"/>
+      <c r="J22" s="277"/>
+    </row>
+    <row r="23" spans="2:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="128">
         <v>44819</v>
       </c>
@@ -14306,6 +14360,18 @@
       <c r="E23" s="20">
         <f t="shared" si="0"/>
         <v>689903.5</v>
+      </c>
+      <c r="G23" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="132" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="172" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14322,6 +14388,15 @@
         <f t="shared" si="0"/>
         <v>703903.5</v>
       </c>
+      <c r="G24" s="315">
+        <v>44834</v>
+      </c>
+      <c r="H24" s="316">
+        <v>44837</v>
+      </c>
+      <c r="I24" s="314">
+        <v>87292.5</v>
+      </c>
     </row>
     <row r="25" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="176">
@@ -14337,6 +14412,15 @@
         <f t="shared" si="0"/>
         <v>720520.5</v>
       </c>
+      <c r="G25" s="315">
+        <v>44835</v>
+      </c>
+      <c r="H25" s="316">
+        <v>44837</v>
+      </c>
+      <c r="I25" s="314">
+        <v>72200</v>
+      </c>
     </row>
     <row r="26" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="178">
@@ -14352,8 +14436,17 @@
         <f t="shared" si="0"/>
         <v>721560.5</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="315">
+        <v>44836</v>
+      </c>
+      <c r="H26" s="316">
+        <v>44837</v>
+      </c>
+      <c r="I26" s="314">
+        <v>67471</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="178">
         <v>44822</v>
       </c>
@@ -14367,8 +14460,16 @@
         <f t="shared" si="0"/>
         <v>781676.5</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="315"/>
+      <c r="H27" s="316"/>
+      <c r="I27" s="314">
+        <v>0</v>
+      </c>
+      <c r="J27" s="17">
+        <v>628442.76</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="178">
         <v>44823</v>
       </c>
@@ -14382,12 +14483,28 @@
         <f t="shared" si="0"/>
         <v>834840.5</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="317" t="s">
+        <v>166</v>
+      </c>
+      <c r="H28" s="318"/>
+      <c r="I28" s="319">
+        <f>SUM(I24:I27)</f>
+        <v>226963.5</v>
+      </c>
+      <c r="J28" s="320">
+        <f>J27-I28</f>
+        <v>401479.26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="267"/>
       <c r="C29" s="267"/>
       <c r="D29" s="267"/>
       <c r="E29" s="267"/>
+      <c r="I29" s="314"/>
+      <c r="J29" s="321" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="30" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="268"/>
@@ -14408,9 +14525,8 @@
       <c r="E32" s="268"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="G20:I21"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.11811023622047245" top="0.59055118110236227" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14467,25 +14583,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="287" t="s">
+      <c r="B1" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
-      <c r="G1" s="289"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="285"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="282" t="s">
+      <c r="B2" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -16215,12 +16331,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="283">
+      <c r="E76" s="279">
         <f>E72-G72</f>
         <v>0</v>
       </c>
-      <c r="F76" s="284"/>
-      <c r="G76" s="285"/>
+      <c r="F76" s="280"/>
+      <c r="G76" s="281"/>
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -16236,11 +16352,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="286" t="s">
+      <c r="E78" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="286"/>
-      <c r="G78" s="286"/>
+      <c r="F78" s="282"/>
+      <c r="G78" s="282"/>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -16381,25 +16497,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="287" t="s">
+      <c r="B1" s="283" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
-      <c r="G1" s="289"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="285"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="282" t="s">
+      <c r="B2" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -17248,12 +17364,12 @@
       <c r="B41" s="37"/>
       <c r="C41" s="38"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="283">
+      <c r="E41" s="279">
         <f>E37-G37</f>
         <v>0</v>
       </c>
-      <c r="F41" s="284"/>
-      <c r="G41" s="285"/>
+      <c r="F41" s="280"/>
+      <c r="G41" s="281"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -17269,11 +17385,11 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="286" t="s">
+      <c r="E43" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="286"/>
-      <c r="G43" s="286"/>
+      <c r="F43" s="282"/>
+      <c r="G43" s="282"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -17417,25 +17533,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="290" t="s">
+      <c r="B1" s="286" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="292"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="288"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="282" t="s">
+      <c r="B2" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -18775,12 +18891,12 @@
       <c r="B60" s="37"/>
       <c r="C60" s="38"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="283">
+      <c r="E60" s="279">
         <f>E56-G56</f>
         <v>0</v>
       </c>
-      <c r="F60" s="284"/>
-      <c r="G60" s="285"/>
+      <c r="F60" s="280"/>
+      <c r="G60" s="281"/>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -18796,11 +18912,11 @@
       <c r="B62" s="37"/>
       <c r="C62" s="38"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="286" t="s">
+      <c r="E62" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="286"/>
-      <c r="G62" s="286"/>
+      <c r="F62" s="282"/>
+      <c r="G62" s="282"/>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -18941,25 +19057,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="290" t="s">
+      <c r="B1" s="286" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="292"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="288"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="282" t="s">
+      <c r="B2" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -20360,12 +20476,12 @@
       <c r="B61" s="37"/>
       <c r="C61" s="38"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="283">
+      <c r="E61" s="279">
         <f>E57-G57</f>
         <v>0</v>
       </c>
-      <c r="F61" s="284"/>
-      <c r="G61" s="285"/>
+      <c r="F61" s="280"/>
+      <c r="G61" s="281"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -20381,11 +20497,11 @@
       <c r="B63" s="37"/>
       <c r="C63" s="38"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="286" t="s">
+      <c r="E63" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="F63" s="286"/>
-      <c r="G63" s="286"/>
+      <c r="F63" s="282"/>
+      <c r="G63" s="282"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -20526,25 +20642,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="290" t="s">
+      <c r="B1" s="286" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="292"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="288"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="282" t="s">
+      <c r="B2" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -21994,12 +22110,12 @@
       <c r="B64" s="37"/>
       <c r="C64" s="38"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="283">
+      <c r="E64" s="279">
         <f>E60-G60</f>
         <v>0</v>
       </c>
-      <c r="F64" s="284"/>
-      <c r="G64" s="285"/>
+      <c r="F64" s="280"/>
+      <c r="G64" s="281"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -22015,11 +22131,11 @@
       <c r="B66" s="37"/>
       <c r="C66" s="38"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="286" t="s">
+      <c r="E66" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="286"/>
-      <c r="G66" s="286"/>
+      <c r="F66" s="282"/>
+      <c r="G66" s="282"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -22160,25 +22276,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="290" t="s">
+      <c r="B1" s="286" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="292"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="288"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="282" t="s">
+      <c r="B2" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -23643,12 +23759,12 @@
       <c r="B65" s="37"/>
       <c r="C65" s="38"/>
       <c r="D65" s="198"/>
-      <c r="E65" s="283">
+      <c r="E65" s="279">
         <f>E61-G61</f>
         <v>0</v>
       </c>
-      <c r="F65" s="284"/>
-      <c r="G65" s="285"/>
+      <c r="F65" s="280"/>
+      <c r="G65" s="281"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -23664,11 +23780,11 @@
       <c r="B67" s="37"/>
       <c r="C67" s="38"/>
       <c r="D67" s="198"/>
-      <c r="E67" s="286" t="s">
+      <c r="E67" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="286"/>
-      <c r="G67" s="286"/>
+      <c r="F67" s="282"/>
+      <c r="G67" s="282"/>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -23850,25 +23966,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="290" t="s">
+      <c r="B1" s="286" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="292"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="288"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="282" t="s">
+      <c r="B2" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -24819,12 +24935,12 @@
       <c r="B43" s="37"/>
       <c r="C43" s="38"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="283">
+      <c r="E43" s="279">
         <f>E39-G39</f>
         <v>0</v>
       </c>
-      <c r="F43" s="284"/>
-      <c r="G43" s="285"/>
+      <c r="F43" s="280"/>
+      <c r="G43" s="281"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -24840,11 +24956,11 @@
       <c r="B45" s="37"/>
       <c r="C45" s="38"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="286" t="s">
+      <c r="E45" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="286"/>
-      <c r="G45" s="286"/>
+      <c r="F45" s="282"/>
+      <c r="G45" s="282"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
